--- a/docs/manifest.xlsx
+++ b/docs/manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calmi2\Documents\GitHub\FAIR-BioRS-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ADA5FF-7FCE-4EF2-80DD-BF2E600EB330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4EA1B6-5ACA-4020-9F6B-7477F3CBF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <t>codebook.csv</t>
   </si>
   <si>
-    <t>2022-04-29T23:39:13,685974-07:00</t>
+    <t>2022-04-30T22:58:21,255407-07:00</t>
   </si>
   <si>
     <t>.csv</t>
@@ -85,13 +85,13 @@
     <t>List of the the resources identified from the 5 categories defined in our review (c.f. README.md file in the root folder of this dataset</t>
   </si>
   <si>
+    <t>Relevant information extracted from all the resources that were fully read</t>
+  </si>
+  <si>
+    <t>Keywords based on information collected in resourcesReview.csv</t>
+  </si>
+  <si>
     <t>Details about our search strategy for the review</t>
-  </si>
-  <si>
-    <t>Keywords based on information collected in resourcesReview.csv</t>
-  </si>
-  <si>
-    <t>Relevant information extracted from all the resources that were fully read</t>
   </si>
 </sst>
 </file>
@@ -457,16 +457,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -536,7 +533,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -564,7 +561,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -572,6 +569,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/manifest.xlsx
+++ b/docs/manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calmi2\Documents\GitHub\FAIR-BioRS-data\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3dtholdings-my.sharepoint.com/personal/bpatel_calmi2_org/Documents/Bhavesh/SPARC/Grant/funded/SODA for SPARC/Phase 3/2022-03-Milestones update request/SODA Manifest Files/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4EA1B6-5ACA-4020-9F6B-7477F3CBF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_496DC00FC078803EE065983545245E3FB48F8983" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8AD5C33-1107-427D-970A-2F82410FA1B1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="1950" windowWidth="20040" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>codebook.csv</t>
   </si>
   <si>
-    <t>2022-04-30T22:58:21,255407-07:00</t>
+    <t>2022-05-31T11:19:09,889517-07:00</t>
   </si>
   <si>
     <t>.csv</t>
@@ -49,31 +49,31 @@
     <t>fair4rsStudiesReview.csv</t>
   </si>
   <si>
-    <t>2022-04-29T22:44:37,921219-07:00</t>
+    <t>2022-05-01T16:03:34,542778-07:00</t>
   </si>
   <si>
     <t>resourcesList.csv</t>
   </si>
   <si>
-    <t>2022-04-29T23:20:41,928134-07:00</t>
+    <t>2022-05-01T16:03:34,544777-07:00</t>
   </si>
   <si>
     <t>resourcesReview.csv</t>
   </si>
   <si>
-    <t>2022-04-29T23:41:06,290509-07:00</t>
+    <t>2022-05-01T16:03:34,545777-07:00</t>
   </si>
   <si>
     <t>resourcesReviewKeywords.csv</t>
   </si>
   <si>
-    <t>2022-04-29T23:40:35,940354-07:00</t>
+    <t>2022-05-17T15:51:02,045998-07:00</t>
   </si>
   <si>
     <t>searchStrategy.csv</t>
   </si>
   <si>
-    <t>2022-04-29T23:20:56,546512-07:00</t>
+    <t>2022-05-18T14:30:06,585700-07:00</t>
   </si>
   <si>
     <t>Codebook providing a description of the variables/parameters used in all the csv files in this folder</t>
@@ -82,9 +82,6 @@
     <t xml:space="preserve">Details about the information collected from each of the three FAIR4RS studyies to establish the checklists that lead to the FAIR-BioRS guidelines </t>
   </si>
   <si>
-    <t>List of the the resources identified from the 5 categories defined in our review (c.f. README.md file in the root folder of this dataset</t>
-  </si>
-  <si>
     <t>Relevant information extracted from all the resources that were fully read</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Details about our search strategy for the review</t>
+  </si>
+  <si>
+    <t>List of the the resources identified from the 5 categories defined in our review (c.f. README.md file in the root folder of this dataset)</t>
   </si>
 </sst>
 </file>
@@ -110,6 +110,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -457,16 +458,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -497,7 +494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -511,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -519,13 +516,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -533,13 +530,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -547,13 +544,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -561,7 +558,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>

--- a/docs/manifest.xlsx
+++ b/docs/manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3dtholdings-my.sharepoint.com/personal/bpatel_calmi2_org/Documents/Bhavesh/SPARC/Grant/funded/SODA for SPARC/Phase 3/2022-03-Milestones update request/SODA Manifest Files/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\Data\dataset\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_496DC00FC078803EE065983545245E3FB48F8983" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8AD5C33-1107-427D-970A-2F82410FA1B1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9929280F-FAED-4CEB-9B6D-FFEFA45183D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="1950" windowWidth="20040" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32325" yWindow="1740" windowWidth="21600" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>filename</t>
   </si>
@@ -37,88 +37,67 @@
     <t>Additional Metadata</t>
   </si>
   <si>
-    <t>codebook.csv</t>
-  </si>
-  <si>
-    <t>2022-05-31T11:19:09,889517-07:00</t>
-  </si>
-  <si>
-    <t>.csv</t>
-  </si>
-  <si>
-    <t>fair4rsStudiesReview.csv</t>
-  </si>
-  <si>
-    <t>2022-05-01T16:03:34,542778-07:00</t>
-  </si>
-  <si>
-    <t>resourcesList.csv</t>
-  </si>
-  <si>
-    <t>2022-05-01T16:03:34,544777-07:00</t>
-  </si>
-  <si>
-    <t>resourcesReview.csv</t>
-  </si>
-  <si>
-    <t>2022-05-01T16:03:34,545777-07:00</t>
-  </si>
-  <si>
-    <t>resourcesReviewKeywords.csv</t>
-  </si>
-  <si>
-    <t>2022-05-17T15:51:02,045998-07:00</t>
-  </si>
-  <si>
-    <t>searchStrategy.csv</t>
-  </si>
-  <si>
-    <t>2022-05-18T14:30:06,585700-07:00</t>
-  </si>
-  <si>
-    <t>Codebook providing a description of the variables/parameters used in all the csv files in this folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details about the information collected from each of the three FAIR4RS studyies to establish the checklists that lead to the FAIR-BioRS guidelines </t>
-  </si>
-  <si>
-    <t>Relevant information extracted from all the resources that were fully read</t>
-  </si>
-  <si>
-    <t>Keywords based on information collected in resourcesReview.csv</t>
-  </si>
-  <si>
-    <t>Details about our search strategy for the review</t>
-  </si>
-  <si>
-    <t>List of the the resources identified from the 5 categories defined in our review (c.f. README.md file in the root folder of this dataset)</t>
+    <t>data.xlsx</t>
+  </si>
+  <si>
+    <t>2023-05-03T18:47:50,249385-07:00</t>
+  </si>
+  <si>
+    <t>File containing all the details about the resources reviewed to establish the FAIR-BioRS guidelines</t>
+  </si>
+  <si>
+    <t>.xlsx</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8D08D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD965"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0C2E6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -131,34 +110,35 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -181,44 +161,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -245,14 +225,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -279,6 +277,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -290,181 +306,159 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -476,95 +470,28 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>